--- a/Projekt/data/Tourendaten.xlsx
+++ b/Projekt/data/Tourendaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>45 km</t>
   </si>
   <si>
-    <t>Download</t>
-  </si>
-  <si>
     <t>http://www.carniabike.it/?page_id=5829</t>
   </si>
   <si>
@@ -159,13 +156,16 @@
   </si>
   <si>
     <t>Giro Infinito Paularo</t>
+  </si>
+  <si>
+    <t>Downloadlink</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,14 @@
       <color rgb="FF2A3E59"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,18 +205,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -524,7 +535,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -569,12 +580,12 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -583,18 +594,18 @@
         <v>600</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -603,38 +614,38 @@
         <v>1400</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -643,18 +654,18 @@
         <v>1000</v>
       </c>
       <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" t="s">
         <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -663,58 +674,58 @@
         <v>600</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>1500</v>
       </c>
       <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>2400</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -723,20 +734,24 @@
         <v>3000</v>
       </c>
       <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" t="s">
         <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>